--- a/biology/Médecine/Jean-Baptiste_Timothée_Baumes/Jean-Baptiste_Timothée_Baumes.xlsx
+++ b/biology/Médecine/Jean-Baptiste_Timothée_Baumes/Jean-Baptiste_Timothée_Baumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Timoth%C3%A9e_Baumes</t>
+          <t>Jean-Baptiste_Timothée_Baumes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Timothée Baumes (ou Baumès) est un professeur de médecine français né à Lunel le 20 janvier 1756, et mort à Montpellier le 19 juillet 1828.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Timoth%C3%A9e_Baumes</t>
+          <t>Jean-Baptiste_Timothée_Baumes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été élève du collège de Sorèze à partir de 1763. Il poursuit des études de médecine à l'université de Montpellier où il est reçu docteur.
 Il y obtient une chaire de médecine en 1790. Il s'intéressait surtout aux maladies infantiles.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Timoth%C3%A9e_Baumes</t>
+          <t>Jean-Baptiste_Timothée_Baumes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire qui a remporté le prix, au jugement de la Faculté de médecine de Paris, le 29 décembre 1785, sur la question proposée en ces termes : Décrire l'ictère des nouveau-nés et distinguer les circonstances où cet ictère exige le secours de l'art et celles où il faut tout attendre de la nature, chez Castor Belle, Nismes, 1788 (lire en ligne)
 Mémoire qui a remporté le prix, au jugement de la Faculté de médecine de Paris, le 22 novembre 1787, sur la question proposée en ces termes : "Décrire la maladie du mésentère propre aux enfans que l'on nomme vulgairement "carreau" ; l'envisager dès son principe ; rechercher les causes qui la produisent et exposer... les moyens de la prévenir et ceux de la guéri, chez Castor Belle, Nismes, 1788 (lire en ligne)
